--- a/medicine/Enfance/Tony_Ross/Tony_Ross.xlsx
+++ b/medicine/Enfance/Tony_Ross/Tony_Ross.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthony Lee Ross, dit Tony Ross né le 10 août 1938 à Londres, est un illustrateur et auteur de littérature d'enfance et de jeunesse britannique. 
 Après avoir étudié à l'université de Liverpool John-Moores, il se lance dans un prolifique carrière d'illustrateur.
@@ -516,7 +528,9 @@
           <t>Œuvres choisies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hugo et l’homme qui volait les couleurs (texte français de Claude et Jacqueline Held), Duculot, 1977.
 Hugo et la chaussette magique (texte français de Claude et Jacqueline Held), Duculot, 1978.
@@ -530,9 +544,43 @@
 Alice au pays des merveilles, Hachette jeunesse, 1993.
 De l'autre côté du miroir, Hachette jeunesse, 1993.
 Attends que je t'attrape !, folio Benjamin, 1999.
-C'est parce que... ?, Gallimard jeunesse, 2004.
-Petite Princesse
-Au lit, Petite Princesse !, Hachette jeunesse, 1995.
+C'est parce que... ?, Gallimard jeunesse, 2004.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tony_Ross</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tony_Ross</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres choisies</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Petite Princesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Au lit, Petite Princesse !, Hachette jeunesse, 1995.
 Je veux une petite sœur !, Gallimard jeunesse, 1999.
 Je veux mon p'tit pot !, Seuil jeunesse, 2000.
 Je veux grandir !, Gallimard jeunesse, 2000.
